--- a/data/trans_orig/IP3112_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP3112_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E864ACF-EBEB-46DE-8F9C-18DA4C4695AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92255C0F-106E-43E0-B69F-606D1D9661B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{695E74F3-CED6-4871-87C3-2CA10A6E0C68}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{07A17B9D-3F60-4AC8-9018-894F08B40FCD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,10 +65,367 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente, no todos los días</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>Una vez al día</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>Dos veces al día</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>Tres o más veces al día</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Dos veces al día</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
   </si>
   <si>
     <t>46,53%</t>
@@ -98,69 +455,6 @@
     <t>49,28%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente, no todos los días</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>Tres o más veces al día</t>
-  </si>
-  <si>
     <t>19,65%</t>
   </si>
   <si>
@@ -188,177 +482,222 @@
     <t>25,58%</t>
   </si>
   <si>
-    <t>Una vez al día</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
     <t>52,86%</t>
   </si>
   <si>
@@ -386,60 +725,6 @@
     <t>58,38%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
     <t>16,28%</t>
   </si>
   <si>
@@ -467,289 +752,85 @@
     <t>21,8%</t>
   </si>
   <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
   </si>
   <si>
     <t>49,63%</t>
@@ -779,60 +860,6 @@
     <t>52,02%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
     <t>16,26%</t>
   </si>
   <si>
@@ -858,33 +885,6 @@
   </si>
   <si>
     <t>20,12%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
   </si>
 </sst>
 </file>
@@ -1276,7 +1276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED1993A-A20E-44B3-9CC4-ADB038EAD914}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696FD219-CCCC-4F67-8422-38C477E4E891}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1394,10 +1394,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>113021</v>
+        <v>503</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1409,238 +1409,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>80400</v>
+        <v>390</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>893</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>268</v>
-      </c>
-      <c r="N4" s="7">
-        <v>193421</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2194</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>19</v>
-      </c>
-      <c r="D5" s="7">
-        <v>10051</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1465</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>8</v>
-      </c>
-      <c r="I5" s="7">
-        <v>5058</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>6</v>
+      </c>
+      <c r="N5" s="7">
+        <v>3658</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="7">
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="N5" s="7">
-        <v>15109</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1095</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
-        <v>24</v>
-      </c>
-      <c r="D6" s="7">
-        <v>16510</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>6</v>
+      </c>
+      <c r="I6" s="7">
+        <v>3474</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7">
-        <v>13</v>
-      </c>
-      <c r="I6" s="7">
-        <v>9562</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>8</v>
+      </c>
+      <c r="N6" s="7">
+        <v>4569</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="M6" s="7">
-        <v>37</v>
-      </c>
-      <c r="N6" s="7">
-        <v>26072</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="7">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6545</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="7">
-        <v>59</v>
-      </c>
-      <c r="D7" s="7">
-        <v>47726</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>11</v>
+      </c>
+      <c r="I7" s="7">
+        <v>7119</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="7">
-        <v>62</v>
-      </c>
-      <c r="I7" s="7">
-        <v>45983</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>20</v>
+      </c>
+      <c r="N7" s="7">
+        <v>13663</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="M7" s="7">
-        <v>121</v>
-      </c>
-      <c r="N7" s="7">
-        <v>93709</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1060</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="7">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7">
+        <v>3552</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="7">
-        <v>69</v>
-      </c>
-      <c r="D8" s="7">
-        <v>55605</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>7</v>
+      </c>
+      <c r="N8" s="7">
+        <v>4612</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="7">
-        <v>69</v>
-      </c>
-      <c r="I8" s="7">
-        <v>46133</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M8" s="7">
-        <v>138</v>
-      </c>
-      <c r="N8" s="7">
-        <v>101738</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1649,306 +1649,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>324</v>
+        <v>17</v>
       </c>
       <c r="D9" s="7">
-        <v>242913</v>
+        <v>11397</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7">
-        <v>267</v>
+        <v>26</v>
       </c>
       <c r="I9" s="7">
-        <v>187135</v>
+        <v>15999</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>591</v>
+        <v>43</v>
       </c>
       <c r="N9" s="7">
-        <v>430048</v>
+        <v>27395</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2074</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="7">
-        <v>54050</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>8</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3684</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>13</v>
+      </c>
+      <c r="N10" s="7">
+        <v>5758</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="7">
-        <v>77</v>
-      </c>
-      <c r="I10" s="7">
-        <v>45528</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M10" s="7">
-        <v>137</v>
-      </c>
-      <c r="N10" s="7">
-        <v>99577</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7">
-        <v>2074</v>
+        <v>5136</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1914</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="7">
-        <v>8</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3684</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>12</v>
+      </c>
+      <c r="N11" s="7">
+        <v>7049</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="M11" s="7">
-        <v>13</v>
-      </c>
-      <c r="N11" s="7">
-        <v>5758</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="7">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D12" s="7">
-        <v>5136</v>
+        <v>26465</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="7">
+        <v>39</v>
+      </c>
+      <c r="I12" s="7">
+        <v>24452</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="7">
-        <v>3</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1914</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>80</v>
+      </c>
+      <c r="N12" s="7">
+        <v>50917</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="M12" s="7">
-        <v>12</v>
-      </c>
-      <c r="N12" s="7">
-        <v>7049</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C13" s="7">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D13" s="7">
-        <v>21602</v>
+        <v>54050</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="7">
+        <v>77</v>
+      </c>
+      <c r="I13" s="7">
+        <v>45528</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="7">
-        <v>35</v>
-      </c>
-      <c r="I13" s="7">
-        <v>26058</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>137</v>
+      </c>
+      <c r="N13" s="7">
+        <v>99577</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M13" s="7">
-        <v>64</v>
-      </c>
-      <c r="N13" s="7">
-        <v>47660</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7">
-        <v>26465</v>
+        <v>21602</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="7">
+        <v>35</v>
+      </c>
+      <c r="I14" s="7">
+        <v>26058</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>64</v>
+      </c>
+      <c r="N14" s="7">
+        <v>47660</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="7">
-        <v>39</v>
-      </c>
-      <c r="I14" s="7">
-        <v>24452</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M14" s="7">
-        <v>80</v>
-      </c>
-      <c r="N14" s="7">
-        <v>50917</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,13 +1963,13 @@
         <v>109327</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
         <v>162</v>
@@ -1978,13 +1978,13 @@
         <v>101635</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
         <v>306</v>
@@ -1993,270 +1993,270 @@
         <v>210962</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="D16" s="7">
-        <v>90146</v>
+        <v>10051</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="7">
+        <v>8</v>
+      </c>
+      <c r="I16" s="7">
+        <v>5058</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>27</v>
+      </c>
+      <c r="N16" s="7">
+        <v>15109</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="7">
-        <v>125</v>
-      </c>
-      <c r="I16" s="7">
-        <v>91413</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M16" s="7">
-        <v>244</v>
-      </c>
-      <c r="N16" s="7">
-        <v>181559</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D17" s="7">
-        <v>7359</v>
+        <v>16510</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
       </c>
       <c r="I17" s="7">
-        <v>8015</v>
+        <v>9562</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M17" s="7">
+        <v>37</v>
+      </c>
+      <c r="N17" s="7">
+        <v>26072</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M17" s="7">
-        <v>23</v>
-      </c>
-      <c r="N17" s="7">
-        <v>15374</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="D18" s="7">
-        <v>6467</v>
+        <v>55605</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="7">
+        <v>69</v>
+      </c>
+      <c r="I18" s="7">
+        <v>46133</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>138</v>
+      </c>
+      <c r="N18" s="7">
+        <v>101738</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H18" s="7">
-        <v>10</v>
-      </c>
-      <c r="I18" s="7">
-        <v>6284</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="M18" s="7">
-        <v>20</v>
-      </c>
-      <c r="N18" s="7">
-        <v>12750</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="D19" s="7">
-        <v>27755</v>
+        <v>113021</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="7">
+        <v>115</v>
+      </c>
+      <c r="I19" s="7">
+        <v>80400</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>268</v>
+      </c>
+      <c r="N19" s="7">
+        <v>193421</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H19" s="7">
-        <v>47</v>
-      </c>
-      <c r="I19" s="7">
-        <v>34338</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="M19" s="7">
-        <v>84</v>
-      </c>
-      <c r="N19" s="7">
-        <v>62092</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D20" s="7">
-        <v>38809</v>
+        <v>47726</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H20" s="7">
+        <v>62</v>
+      </c>
+      <c r="I20" s="7">
+        <v>45983</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>121</v>
+      </c>
+      <c r="N20" s="7">
+        <v>93709</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H20" s="7">
-        <v>39</v>
-      </c>
-      <c r="I20" s="7">
-        <v>27317</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M20" s="7">
-        <v>94</v>
-      </c>
-      <c r="N20" s="7">
-        <v>66126</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,306 +2265,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>231</v>
+        <v>324</v>
       </c>
       <c r="D21" s="7">
-        <v>170535</v>
+        <v>242913</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="I21" s="7">
-        <v>167367</v>
+        <v>187135</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
-        <v>465</v>
+        <v>591</v>
       </c>
       <c r="N21" s="7">
-        <v>337902</v>
+        <v>430048</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>6545</v>
+        <v>4903</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H22" s="7">
+        <v>8</v>
+      </c>
+      <c r="I22" s="7">
+        <v>5450</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="L22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" s="7">
+        <v>18</v>
+      </c>
+      <c r="N22" s="7">
+        <v>10352</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H22" s="7">
-        <v>11</v>
-      </c>
-      <c r="I22" s="7">
-        <v>7119</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="M22" s="7">
-        <v>20</v>
-      </c>
-      <c r="N22" s="7">
-        <v>13663</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="7">
+        <v>17</v>
+      </c>
+      <c r="D23" s="7">
+        <v>10436</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H23" s="7">
+        <v>3</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1668</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M23" s="7">
         <v>20</v>
       </c>
-      <c r="C23" s="7">
-        <v>1</v>
-      </c>
-      <c r="D23" s="7">
-        <v>503</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="N23" s="7">
+        <v>12104</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H23" s="7">
-        <v>1</v>
-      </c>
-      <c r="I23" s="7">
-        <v>390</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="M23" s="7">
-        <v>2</v>
-      </c>
-      <c r="N23" s="7">
-        <v>893</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" s="7">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="D24" s="7">
-        <v>2194</v>
+        <v>52864</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" s="7">
+        <v>66</v>
+      </c>
+      <c r="I24" s="7">
+        <v>53077</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H24" s="7">
-        <v>3</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1465</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>138</v>
+      </c>
+      <c r="N24" s="7">
+        <v>105940</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="M24" s="7">
-        <v>6</v>
-      </c>
-      <c r="N24" s="7">
-        <v>3658</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="D25" s="7">
-        <v>1060</v>
+        <v>86072</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H25" s="7">
+        <v>116</v>
+      </c>
+      <c r="I25" s="7">
+        <v>86689</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="H25" s="7">
-        <v>5</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3552</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>215</v>
+      </c>
+      <c r="N25" s="7">
+        <v>172760</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="M25" s="7">
-        <v>7</v>
-      </c>
-      <c r="N25" s="7">
-        <v>4612</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D26" s="7">
-        <v>1095</v>
+        <v>16458</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>26</v>
+      </c>
+      <c r="I26" s="7">
+        <v>17609</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H26" s="7">
-        <v>6</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3474</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>47</v>
+      </c>
+      <c r="N26" s="7">
+        <v>34067</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="M26" s="7">
-        <v>8</v>
-      </c>
-      <c r="N26" s="7">
-        <v>4569</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,150 +2573,150 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>17</v>
+        <v>219</v>
       </c>
       <c r="D27" s="7">
-        <v>11397</v>
+        <v>170732</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
-        <v>26</v>
+        <v>219</v>
       </c>
       <c r="I27" s="7">
-        <v>15999</v>
+        <v>164492</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
-        <v>43</v>
+        <v>438</v>
       </c>
       <c r="N27" s="7">
-        <v>27395</v>
+        <v>335223</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D28" s="7">
-        <v>86072</v>
+        <v>7359</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="7">
+        <v>13</v>
+      </c>
+      <c r="I28" s="7">
+        <v>8015</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H28" s="7">
-        <v>116</v>
-      </c>
-      <c r="I28" s="7">
-        <v>86689</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>23</v>
+      </c>
+      <c r="N28" s="7">
+        <v>15374</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="M28" s="7">
-        <v>215</v>
-      </c>
-      <c r="N28" s="7">
-        <v>172760</v>
-      </c>
-      <c r="O28" s="7" t="s">
+      <c r="P28" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7">
         <v>10</v>
       </c>
       <c r="D29" s="7">
-        <v>4903</v>
+        <v>6467</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="H29" s="7">
+        <v>10</v>
+      </c>
+      <c r="I29" s="7">
+        <v>6284</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H29" s="7">
-        <v>8</v>
-      </c>
-      <c r="I29" s="7">
-        <v>5450</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>20</v>
+      </c>
+      <c r="N29" s="7">
+        <v>12750</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="L29" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="M29" s="7">
-        <v>18</v>
-      </c>
-      <c r="N29" s="7">
-        <v>10352</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>210</v>
@@ -2725,13 +2725,13 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" s="7">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D30" s="7">
-        <v>10436</v>
+        <v>38809</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>211</v>
@@ -2743,10 +2743,10 @@
         <v>213</v>
       </c>
       <c r="H30" s="7">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="I30" s="7">
-        <v>1668</v>
+        <v>27317</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>214</v>
@@ -2758,10 +2758,10 @@
         <v>216</v>
       </c>
       <c r="M30" s="7">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="N30" s="7">
-        <v>12104</v>
+        <v>66126</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>217</v>
@@ -2776,13 +2776,13 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C31" s="7">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="D31" s="7">
-        <v>16458</v>
+        <v>90146</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>220</v>
@@ -2794,10 +2794,10 @@
         <v>222</v>
       </c>
       <c r="H31" s="7">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="I31" s="7">
-        <v>17609</v>
+        <v>91413</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>223</v>
@@ -2809,10 +2809,10 @@
         <v>225</v>
       </c>
       <c r="M31" s="7">
-        <v>47</v>
+        <v>244</v>
       </c>
       <c r="N31" s="7">
-        <v>34067</v>
+        <v>181559</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>226</v>
@@ -2827,13 +2827,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="D32" s="7">
-        <v>52864</v>
+        <v>27755</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>229</v>
@@ -2845,10 +2845,10 @@
         <v>231</v>
       </c>
       <c r="H32" s="7">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="I32" s="7">
-        <v>53077</v>
+        <v>34338</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>232</v>
@@ -2860,10 +2860,10 @@
         <v>234</v>
       </c>
       <c r="M32" s="7">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="N32" s="7">
-        <v>105940</v>
+        <v>62092</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>235</v>
@@ -2881,49 +2881,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="D33" s="7">
-        <v>170732</v>
+        <v>170535</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H33" s="7">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="I33" s="7">
-        <v>164492</v>
+        <v>167367</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M33" s="7">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="N33" s="7">
-        <v>335223</v>
+        <v>337902</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,10 +2934,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>440</v>
+        <v>45</v>
       </c>
       <c r="D34" s="7">
-        <v>349833</v>
+        <v>24889</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>238</v>
@@ -2949,10 +2949,10 @@
         <v>240</v>
       </c>
       <c r="H34" s="7">
-        <v>444</v>
+        <v>38</v>
       </c>
       <c r="I34" s="7">
-        <v>311148</v>
+        <v>22596</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>241</v>
@@ -2964,10 +2964,10 @@
         <v>243</v>
       </c>
       <c r="M34" s="7">
-        <v>884</v>
+        <v>83</v>
       </c>
       <c r="N34" s="7">
-        <v>660981</v>
+        <v>47485</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>244</v>
@@ -2982,13 +2982,13 @@
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C35" s="7">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D35" s="7">
-        <v>24889</v>
+        <v>40743</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>247</v>
@@ -3000,10 +3000,10 @@
         <v>249</v>
       </c>
       <c r="H35" s="7">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I35" s="7">
-        <v>22596</v>
+        <v>20891</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>250</v>
@@ -3015,10 +3015,10 @@
         <v>252</v>
       </c>
       <c r="M35" s="7">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="N35" s="7">
-        <v>47485</v>
+        <v>61634</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>253</v>
@@ -3033,13 +3033,13 @@
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C36" s="7">
-        <v>63</v>
+        <v>239</v>
       </c>
       <c r="D36" s="7">
-        <v>40743</v>
+        <v>174838</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>256</v>
@@ -3051,10 +3051,10 @@
         <v>258</v>
       </c>
       <c r="H36" s="7">
-        <v>32</v>
+        <v>219</v>
       </c>
       <c r="I36" s="7">
-        <v>20891</v>
+        <v>154453</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>259</v>
@@ -3066,10 +3066,10 @@
         <v>261</v>
       </c>
       <c r="M36" s="7">
-        <v>95</v>
+        <v>458</v>
       </c>
       <c r="N36" s="7">
-        <v>61634</v>
+        <v>329291</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>262</v>
@@ -3084,13 +3084,13 @@
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C37" s="7">
-        <v>148</v>
+        <v>440</v>
       </c>
       <c r="D37" s="7">
-        <v>114601</v>
+        <v>349833</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>265</v>
@@ -3102,10 +3102,10 @@
         <v>267</v>
       </c>
       <c r="H37" s="7">
-        <v>175</v>
+        <v>444</v>
       </c>
       <c r="I37" s="7">
-        <v>127540</v>
+        <v>311148</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>268</v>
@@ -3117,10 +3117,10 @@
         <v>270</v>
       </c>
       <c r="M37" s="7">
-        <v>323</v>
+        <v>884</v>
       </c>
       <c r="N37" s="7">
-        <v>242141</v>
+        <v>660981</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>271</v>
@@ -3135,13 +3135,13 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C38" s="7">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="D38" s="7">
-        <v>174838</v>
+        <v>114601</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>274</v>
@@ -3153,10 +3153,10 @@
         <v>276</v>
       </c>
       <c r="H38" s="7">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="I38" s="7">
-        <v>154453</v>
+        <v>127540</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>277</v>
@@ -3168,10 +3168,10 @@
         <v>279</v>
       </c>
       <c r="M38" s="7">
-        <v>458</v>
+        <v>323</v>
       </c>
       <c r="N38" s="7">
-        <v>329291</v>
+        <v>242141</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>280</v>
@@ -3195,13 +3195,13 @@
         <v>704904</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H39" s="7">
         <v>908</v>
@@ -3210,13 +3210,13 @@
         <v>636628</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M39" s="7">
         <v>1843</v>
@@ -3225,13 +3225,13 @@
         <v>1341531</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP3112_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP3112_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92255C0F-106E-43E0-B69F-606D1D9661B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27E1399A-3673-4DDC-8AAA-724240C68A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{07A17B9D-3F60-4AC8-9018-894F08B40FCD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F9CAA9C4-38A1-4304-822C-992E6B2E9260}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="283">
   <si>
     <t>Menores según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 95,99%)</t>
   </si>
@@ -68,15 +68,129 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Tres o más veces al día</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>Dos veces al día</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>Una vez al día</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente, no todos los días</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
     <t>Nunca</t>
   </si>
   <si>
     <t>4,41%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>23,45%</t>
   </si>
   <si>
@@ -92,799 +206,685 @@
     <t>10,73%</t>
   </si>
   <si>
-    <t>Ocasionalmente, no todos los días</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>Una vez al día</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>Dos veces al día</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>Tres o más veces al día</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
     <t>1,9%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
   </si>
   <si>
     <t>3,62%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
+    <t>5,78%</t>
   </si>
   <si>
     <t>4,32%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
   </si>
   <si>
     <t>4,79%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
   </si>
   <si>
     <t>4,55%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
   </si>
   <si>
     <t>3,53%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
   </si>
   <si>
     <t>3,54%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
+    <t>2,8%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -895,7 +895,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -991,39 +991,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1075,7 +1075,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1186,13 +1186,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1201,6 +1194,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1265,19 +1265,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696FD219-CCCC-4F67-8422-38C477E4E891}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA24F7D1-E56A-40EA-B377-E9F68975AA24}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1394,10 +1414,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>503</v>
+        <v>1060</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1409,91 +1429,91 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>390</v>
+        <v>3552</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>893</v>
+        <v>4612</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>2194</v>
+        <v>6545</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>11</v>
+      </c>
+      <c r="I5" s="7">
+        <v>7119</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1465</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="7">
-        <v>6</v>
-      </c>
       <c r="N5" s="7">
-        <v>3658</v>
+        <v>13663</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -1502,13 +1522,13 @@
         <v>1095</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -1517,13 +1537,13 @@
         <v>3474</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -1532,112 +1552,112 @@
         <v>4569</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>6545</v>
+        <v>2194</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>7119</v>
+        <v>1465</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>13663</v>
+        <v>3658</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>1060</v>
+        <v>503</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>3552</v>
+        <v>390</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M8" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>4612</v>
+        <v>893</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>55</v>
@@ -1702,10 +1722,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D10" s="7">
-        <v>2074</v>
+        <v>21602</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>58</v>
@@ -1717,10 +1737,10 @@
         <v>60</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I10" s="7">
-        <v>3684</v>
+        <v>26058</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>61</v>
@@ -1732,10 +1752,10 @@
         <v>63</v>
       </c>
       <c r="M10" s="7">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="N10" s="7">
-        <v>5758</v>
+        <v>47660</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>64</v>
@@ -1750,13 +1770,13 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D11" s="7">
-        <v>5136</v>
+        <v>54050</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>67</v>
@@ -1768,10 +1788,10 @@
         <v>69</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="I11" s="7">
-        <v>1914</v>
+        <v>45528</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>70</v>
@@ -1783,10 +1803,10 @@
         <v>72</v>
       </c>
       <c r="M11" s="7">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="N11" s="7">
-        <v>7049</v>
+        <v>99577</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>73</v>
@@ -1801,7 +1821,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>41</v>
@@ -1852,13 +1872,13 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>54050</v>
+        <v>5136</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>85</v>
@@ -1870,10 +1890,10 @@
         <v>87</v>
       </c>
       <c r="H13" s="7">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>45528</v>
+        <v>1914</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>88</v>
@@ -1885,70 +1905,70 @@
         <v>90</v>
       </c>
       <c r="M13" s="7">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="N13" s="7">
-        <v>99577</v>
+        <v>7049</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>91</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>21602</v>
+        <v>2074</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="I14" s="7">
-        <v>26058</v>
+        <v>3684</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M14" s="7">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="N14" s="7">
-        <v>47660</v>
+        <v>5758</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2004,112 +2024,112 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D16" s="7">
-        <v>10051</v>
+        <v>47726</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="I16" s="7">
-        <v>5058</v>
+        <v>45983</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="N16" s="7">
-        <v>15109</v>
+        <v>93709</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="D17" s="7">
-        <v>16510</v>
+        <v>113021</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="I17" s="7">
-        <v>9562</v>
+        <v>80400</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
-        <v>37</v>
+        <v>268</v>
       </c>
       <c r="N17" s="7">
-        <v>26072</v>
+        <v>193421</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>69</v>
@@ -2118,13 +2138,13 @@
         <v>55605</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>69</v>
@@ -2133,13 +2153,13 @@
         <v>46133</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>138</v>
@@ -2148,115 +2168,115 @@
         <v>101738</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="7">
+        <v>24</v>
+      </c>
+      <c r="D19" s="7">
+        <v>16510</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="7">
+        <v>13</v>
+      </c>
+      <c r="I19" s="7">
+        <v>9562</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M19" s="7">
         <v>37</v>
       </c>
-      <c r="C19" s="7">
-        <v>153</v>
-      </c>
-      <c r="D19" s="7">
-        <v>113021</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H19" s="7">
-        <v>115</v>
-      </c>
-      <c r="I19" s="7">
-        <v>80400</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M19" s="7">
-        <v>268</v>
-      </c>
       <c r="N19" s="7">
-        <v>193421</v>
+        <v>26072</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D20" s="7">
-        <v>47726</v>
+        <v>10051</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="I20" s="7">
-        <v>45983</v>
+        <v>5058</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="N20" s="7">
-        <v>93709</v>
+        <v>15109</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2312,31 +2332,31 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D22" s="7">
-        <v>4903</v>
+        <v>16458</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>151</v>
       </c>
       <c r="H22" s="7">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I22" s="7">
-        <v>5450</v>
+        <v>17609</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>152</v>
@@ -2345,79 +2365,79 @@
         <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="N22" s="7">
-        <v>10352</v>
+        <v>34067</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="D23" s="7">
-        <v>10436</v>
+        <v>86072</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="I23" s="7">
-        <v>1668</v>
+        <v>86689</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="N23" s="7">
-        <v>12104</v>
+        <v>172760</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>72</v>
@@ -2426,13 +2446,13 @@
         <v>52864</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>66</v>
@@ -2441,13 +2461,13 @@
         <v>53077</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>138</v>
@@ -2456,115 +2476,115 @@
         <v>105940</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="D25" s="7">
-        <v>86072</v>
+        <v>10436</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>86689</v>
+        <v>1668</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
-        <v>215</v>
+        <v>20</v>
       </c>
       <c r="N25" s="7">
-        <v>172760</v>
+        <v>12104</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D26" s="7">
-        <v>16458</v>
+        <v>4903</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I26" s="7">
-        <v>17609</v>
+        <v>5450</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="N26" s="7">
-        <v>34067</v>
+        <v>10352</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,112 +2640,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D28" s="7">
-        <v>7359</v>
+        <v>27755</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H28" s="7">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="I28" s="7">
-        <v>8015</v>
+        <v>34338</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M28" s="7">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="N28" s="7">
-        <v>15374</v>
+        <v>62092</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="D29" s="7">
-        <v>6467</v>
+        <v>90146</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H29" s="7">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="I29" s="7">
-        <v>6284</v>
+        <v>91413</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M29" s="7">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="N29" s="7">
-        <v>12750</v>
+        <v>181559</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>55</v>
@@ -2734,13 +2754,13 @@
         <v>38809</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H30" s="7">
         <v>39</v>
@@ -2749,13 +2769,13 @@
         <v>27317</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M30" s="7">
         <v>94</v>
@@ -2764,115 +2784,115 @@
         <v>66126</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="D31" s="7">
-        <v>90146</v>
+        <v>6467</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H31" s="7">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="I31" s="7">
-        <v>91413</v>
+        <v>6284</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M31" s="7">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="N31" s="7">
-        <v>181559</v>
+        <v>12750</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D32" s="7">
-        <v>27755</v>
+        <v>7359</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H32" s="7">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="I32" s="7">
-        <v>34338</v>
+        <v>8015</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M32" s="7">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="N32" s="7">
-        <v>62092</v>
+        <v>15374</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,106 +2954,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="D34" s="7">
-        <v>24889</v>
+        <v>114601</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H34" s="7">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="I34" s="7">
-        <v>22596</v>
+        <v>127540</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M34" s="7">
-        <v>83</v>
+        <v>323</v>
       </c>
       <c r="N34" s="7">
-        <v>47485</v>
+        <v>242141</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>63</v>
+        <v>440</v>
       </c>
       <c r="D35" s="7">
-        <v>40743</v>
+        <v>349833</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H35" s="7">
-        <v>32</v>
+        <v>444</v>
       </c>
       <c r="I35" s="7">
-        <v>20891</v>
+        <v>311148</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M35" s="7">
-        <v>95</v>
+        <v>884</v>
       </c>
       <c r="N35" s="7">
-        <v>61634</v>
+        <v>660981</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>239</v>
@@ -3042,13 +3062,13 @@
         <v>174838</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H36" s="7">
         <v>219</v>
@@ -3057,13 +3077,13 @@
         <v>154453</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M36" s="7">
         <v>458</v>
@@ -3072,28 +3092,28 @@
         <v>329291</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
-        <v>440</v>
+        <v>63</v>
       </c>
       <c r="D37" s="7">
-        <v>349833</v>
+        <v>40743</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>266</v>
@@ -3102,10 +3122,10 @@
         <v>267</v>
       </c>
       <c r="H37" s="7">
-        <v>444</v>
+        <v>32</v>
       </c>
       <c r="I37" s="7">
-        <v>311148</v>
+        <v>20891</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>268</v>
@@ -3117,10 +3137,10 @@
         <v>270</v>
       </c>
       <c r="M37" s="7">
-        <v>884</v>
+        <v>95</v>
       </c>
       <c r="N37" s="7">
-        <v>660981</v>
+        <v>61634</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>271</v>
@@ -3129,58 +3149,58 @@
         <v>272</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="D38" s="7">
-        <v>114601</v>
+        <v>24889</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="H38" s="7">
+        <v>38</v>
+      </c>
+      <c r="I38" s="7">
+        <v>22596</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="H38" s="7">
-        <v>175</v>
-      </c>
-      <c r="I38" s="7">
-        <v>127540</v>
-      </c>
-      <c r="J38" s="7" t="s">
+      <c r="K38" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="M38" s="7">
+        <v>83</v>
+      </c>
+      <c r="N38" s="7">
+        <v>47485</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="M38" s="7">
-        <v>323</v>
-      </c>
-      <c r="N38" s="7">
-        <v>242141</v>
-      </c>
-      <c r="O38" s="7" t="s">
+      <c r="P38" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3232,6 +3252,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP3112_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP3112_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27E1399A-3673-4DDC-8AAA-724240C68A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D672CE0-1138-438C-A868-2C549E869EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F9CAA9C4-38A1-4304-822C-992E6B2E9260}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B0846E80-832D-401A-8787-57D93405C80E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="280">
   <si>
     <t>Menores según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 95,99%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Tres o más veces al día</t>
@@ -77,25 +77,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>31,66%</t>
+    <t>29,02%</t>
   </si>
   <si>
     <t>22,2%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
   </si>
   <si>
     <t>16,84%</t>
   </si>
   <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
   </si>
   <si>
     <t>Dos veces al día</t>
@@ -104,28 +104,28 @@
     <t>57,43%</t>
   </si>
   <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
   </si>
   <si>
     <t>44,49%</t>
   </si>
   <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
   </si>
   <si>
     <t>49,88%</t>
   </si>
   <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
   </si>
   <si>
     <t>Una vez al día</t>
@@ -134,25 +134,25 @@
     <t>9,61%</t>
   </si>
   <si>
-    <t>33,63%</t>
+    <t>30,38%</t>
   </si>
   <si>
     <t>21,71%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
   </si>
   <si>
     <t>16,68%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
   </si>
   <si>
     <t>Ocasionalmente, no todos los días</t>
@@ -161,463 +161,460 @@
     <t>19,25%</t>
   </si>
   <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
   </si>
   <si>
     <t>9,15%</t>
   </si>
   <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
   </si>
   <si>
     <t>2,17%</t>
   </si>
   <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
+    <t>5,51%</t>
   </si>
   <si>
     <t>2,87%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
   </si>
   <si>
     <t>3,31%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
   </si>
   <si>
     <t>3,09%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -626,91 +623,91 @@
     <t>16,28%</t>
   </si>
   <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
   </si>
   <si>
     <t>20,52%</t>
   </si>
   <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
   </si>
   <si>
     <t>18,38%</t>
   </si>
   <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
   </si>
   <si>
     <t>52,86%</t>
   </si>
   <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
   </si>
   <si>
     <t>54,62%</t>
   </si>
   <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
   </si>
   <si>
     <t>53,73%</t>
   </si>
   <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
   </si>
   <si>
     <t>22,76%</t>
   </si>
   <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
   </si>
   <si>
     <t>16,32%</t>
   </si>
   <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
   </si>
   <si>
     <t>19,57%</t>
   </si>
   <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
   </si>
   <si>
     <t>3,79%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
   </si>
   <si>
     <t>3,75%</t>
@@ -719,169 +716,163 @@
     <t>1,84%</t>
   </si>
   <si>
-    <t>6,28%</t>
+    <t>6,59%</t>
   </si>
   <si>
     <t>3,77%</t>
   </si>
   <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
+    <t>4,9%</t>
   </si>
   <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>3,64%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
   </si>
   <si>
     <t>3,53%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
+    <t>5,03%</t>
   </si>
   <si>
     <t>3,54%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
+    <t>2,81%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1296,7 +1287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA24F7D1-E56A-40EA-B377-E9F68975AA24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFDFB0A-8FF2-45C7-B457-3AADD8F0A9B7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1764,7 +1755,7 @@
         <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1779,13 +1770,13 @@
         <v>54050</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H11" s="7">
         <v>77</v>
@@ -1794,13 +1785,13 @@
         <v>45528</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M11" s="7">
         <v>137</v>
@@ -1809,13 +1800,13 @@
         <v>99577</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1830,13 +1821,13 @@
         <v>26465</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H12" s="7">
         <v>39</v>
@@ -1845,13 +1836,13 @@
         <v>24452</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>80</v>
@@ -1860,13 +1851,13 @@
         <v>50917</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1881,13 +1872,13 @@
         <v>5136</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -1896,13 +1887,13 @@
         <v>1914</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -1911,13 +1902,13 @@
         <v>7049</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1932,13 +1923,13 @@
         <v>2074</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -1947,13 +1938,13 @@
         <v>3684</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -1962,13 +1953,13 @@
         <v>5758</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2024,7 +2015,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2036,13 +2027,13 @@
         <v>47726</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -2051,13 +2042,13 @@
         <v>45983</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>121</v>
@@ -2066,13 +2057,13 @@
         <v>93709</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2087,13 +2078,13 @@
         <v>113021</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>115</v>
@@ -2102,13 +2093,13 @@
         <v>80400</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>268</v>
@@ -2117,13 +2108,13 @@
         <v>193421</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,13 +2129,13 @@
         <v>55605</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>69</v>
@@ -2153,13 +2144,13 @@
         <v>46133</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>138</v>
@@ -2168,13 +2159,13 @@
         <v>101738</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,13 +2180,13 @@
         <v>16510</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -2204,13 +2195,13 @@
         <v>9562</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
@@ -2219,13 +2210,13 @@
         <v>26072</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,13 +2231,13 @@
         <v>10051</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -2255,13 +2246,13 @@
         <v>5058</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>27</v>
@@ -2270,13 +2261,13 @@
         <v>15109</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,7 +2323,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2344,13 +2335,13 @@
         <v>16458</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -2359,13 +2350,13 @@
         <v>17609</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
@@ -2374,13 +2365,13 @@
         <v>34067</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,16 +2383,16 @@
         <v>99</v>
       </c>
       <c r="D23" s="7">
-        <v>86072</v>
+        <v>86071</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>116</v>
@@ -2410,13 +2401,13 @@
         <v>86689</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>215</v>
@@ -2425,13 +2416,13 @@
         <v>172760</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,13 +2437,13 @@
         <v>52864</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>66</v>
@@ -2461,13 +2452,13 @@
         <v>53077</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>138</v>
@@ -2476,13 +2467,13 @@
         <v>105940</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,13 +2488,13 @@
         <v>10436</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2512,13 +2503,13 @@
         <v>1668</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>20</v>
@@ -2527,13 +2518,13 @@
         <v>12104</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,13 +2539,13 @@
         <v>4903</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -2563,13 +2554,13 @@
         <v>5450</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>18</v>
@@ -2578,13 +2569,13 @@
         <v>10352</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,7 +2587,7 @@
         <v>219</v>
       </c>
       <c r="D27" s="7">
-        <v>170732</v>
+        <v>170731</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>56</v>
@@ -2640,7 +2631,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2652,13 +2643,13 @@
         <v>27755</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>47</v>
@@ -2667,13 +2658,13 @@
         <v>34338</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>84</v>
@@ -2682,13 +2673,13 @@
         <v>62092</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,13 +2694,13 @@
         <v>90146</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H29" s="7">
         <v>125</v>
@@ -2718,13 +2709,13 @@
         <v>91413</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>244</v>
@@ -2733,13 +2724,13 @@
         <v>181559</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,13 +2745,13 @@
         <v>38809</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H30" s="7">
         <v>39</v>
@@ -2769,13 +2760,13 @@
         <v>27317</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M30" s="7">
         <v>94</v>
@@ -2784,13 +2775,13 @@
         <v>66126</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,13 +2796,13 @@
         <v>6467</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H31" s="7">
         <v>10</v>
@@ -2820,13 +2811,13 @@
         <v>6284</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M31" s="7">
         <v>20</v>
@@ -2835,13 +2826,13 @@
         <v>12750</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,13 +2847,13 @@
         <v>7359</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -2871,13 +2862,13 @@
         <v>8015</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M32" s="7">
         <v>23</v>
@@ -2886,13 +2877,13 @@
         <v>15374</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,13 +2951,13 @@
         <v>114601</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H34" s="7">
         <v>175</v>
@@ -2975,13 +2966,13 @@
         <v>127540</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M34" s="7">
         <v>323</v>
@@ -2990,13 +2981,13 @@
         <v>242141</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +3002,13 @@
         <v>349833</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H35" s="7">
         <v>444</v>
@@ -3026,13 +3017,13 @@
         <v>311148</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M35" s="7">
         <v>884</v>
@@ -3041,13 +3032,13 @@
         <v>660981</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,13 +3053,13 @@
         <v>174838</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H36" s="7">
         <v>219</v>
@@ -3077,13 +3068,13 @@
         <v>154453</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M36" s="7">
         <v>458</v>
@@ -3092,13 +3083,13 @@
         <v>329291</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,13 +3104,13 @@
         <v>40743</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>230</v>
+        <v>92</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>266</v>
+        <v>50</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H37" s="7">
         <v>32</v>
@@ -3128,13 +3119,13 @@
         <v>20891</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M37" s="7">
         <v>95</v>
@@ -3143,13 +3134,13 @@
         <v>61634</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,13 +3155,13 @@
         <v>24889</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H38" s="7">
         <v>38</v>
@@ -3179,13 +3170,13 @@
         <v>22596</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M38" s="7">
         <v>83</v>
@@ -3194,13 +3185,13 @@
         <v>47485</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>281</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,7 +3247,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
